--- a/format_excel/FORMAT EXCEL DATA PENGURUS PERUSAHAAN DRT JMTO.xlsx
+++ b/format_excel/FORMAT EXCEL DATA PENGURUS PERUSAHAAN DRT JMTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vms-jmto\format_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A28D85C-48C2-4456-AF9B-C7E4A5DB7BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2985C31D-8682-4D95-8D3D-F42968E7E6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A632CAD5-B0FD-44A7-985B-58B65B2ABDD4}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A632CAD5-B0FD-44A7-985B-58B65B2ABDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,66 +36,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>IMPORT EXCEL DATA PEMILIK PERUSAHAAN JMTO</t>
+    <t>IMPORT EXCEL DATA PENGALAMAN PERUSAHAAN JMTO</t>
   </si>
   <si>
-    <t>NIK/PASPOR</t>
+    <t>NO KONTRAK</t>
   </si>
   <si>
-    <t>NPWP</t>
+    <t>NAMA PEKERJAAN</t>
   </si>
   <si>
-    <t>NAMA</t>
+    <t>Jasa Lainnya</t>
   </si>
   <si>
-    <t>WARGANEGARA</t>
+    <t>Jasa Konstruksi</t>
   </si>
   <si>
-    <t>JABATAN PENGURUS</t>
+    <t>JENIS PENGADAAN</t>
   </si>
   <si>
-    <t>JABATAN MULAI</t>
+    <t>NILAI KONTRAK</t>
   </si>
   <si>
-    <t>JABATAN SELESAI</t>
+    <t>INTANSI PEMBERI</t>
   </si>
   <si>
-    <t>ALAMAT PENGURUS</t>
+    <t>BUMN</t>
   </si>
   <si>
-    <t>Erlangga Pramsco</t>
+    <t>BUMD</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>LOKASI PEKERJAAN</t>
   </si>
   <si>
-    <t>Manger</t>
+    <t>PALIKANCI</t>
   </si>
   <si>
-    <t>RAWAKALONG GUNUNG SINDUR BOGOR</t>
+    <t>SURGEM</t>
   </si>
   <si>
-    <t>20/10/2121</t>
+    <t>PKERJAAN TOLL PALIKANCI</t>
   </si>
   <si>
-    <t>10/10/2022</t>
-  </si>
-  <si>
-    <t>Asing</t>
-  </si>
-  <si>
-    <t>Danang Prasetyo</t>
-  </si>
-  <si>
-    <t>20/10/2023</t>
+    <t>PKERJAAN TOLL SURGEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,13 +149,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,14 +476,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CC3E2E-A3E4-418C-ABD1-9C4DCA633CE8}">
   <dimension ref="A1:H320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
@@ -489,16 +493,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -508,1105 +512,1116 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>163409923</v>
       </c>
-      <c r="B3">
-        <v>123782222</v>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2000</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>123123123</v>
       </c>
-      <c r="B4">
-        <v>123123782222</v>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2000</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
     </row>
     <row r="110" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
     </row>
     <row r="112" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
     </row>
     <row r="116" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
     </row>
     <row r="118" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
     </row>
     <row r="120" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
     </row>
     <row r="122" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
     </row>
     <row r="123" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
     </row>
     <row r="124" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
     </row>
     <row r="126" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
     </row>
     <row r="127" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
     </row>
     <row r="128" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
     </row>
     <row r="129" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
     </row>
     <row r="130" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
     </row>
     <row r="131" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
     </row>
     <row r="133" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
     </row>
     <row r="135" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
     </row>
     <row r="136" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
     </row>
     <row r="137" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
     </row>
     <row r="138" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
     </row>
     <row r="139" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
     </row>
     <row r="140" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
     </row>
     <row r="141" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
     </row>
     <row r="142" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
     </row>
     <row r="143" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
     </row>
     <row r="144" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
     </row>
     <row r="145" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
     </row>
     <row r="146" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
     </row>
     <row r="147" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
     </row>
     <row r="148" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
     </row>
     <row r="149" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
     </row>
     <row r="150" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
     </row>
     <row r="151" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
     </row>
     <row r="152" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
     </row>
     <row r="153" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
     </row>
     <row r="154" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
     </row>
     <row r="155" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
     </row>
     <row r="156" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F156" s="6"/>
+      <c r="F156" s="4"/>
       <c r="G156" s="3"/>
     </row>
     <row r="157" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F157" s="6"/>
+      <c r="F157" s="4"/>
       <c r="G157" s="3"/>
     </row>
     <row r="158" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F158" s="6"/>
+      <c r="F158" s="4"/>
       <c r="G158" s="3"/>
     </row>
     <row r="159" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F159" s="6"/>
+      <c r="F159" s="4"/>
       <c r="G159" s="3"/>
     </row>
     <row r="160" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F160" s="6"/>
+      <c r="F160" s="4"/>
       <c r="G160" s="3"/>
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F161" s="6"/>
+      <c r="F161" s="4"/>
       <c r="G161" s="3"/>
     </row>
     <row r="162" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F162" s="6"/>
+      <c r="F162" s="4"/>
       <c r="G162" s="3"/>
     </row>
     <row r="163" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F163" s="6"/>
+      <c r="F163" s="4"/>
       <c r="G163" s="3"/>
     </row>
     <row r="164" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F164" s="6"/>
+      <c r="F164" s="4"/>
       <c r="G164" s="3"/>
     </row>
     <row r="165" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F165" s="6"/>
+      <c r="F165" s="4"/>
     </row>
     <row r="166" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F166" s="6"/>
+      <c r="F166" s="4"/>
     </row>
     <row r="167" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F167" s="6"/>
+      <c r="F167" s="4"/>
     </row>
     <row r="168" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F168" s="6"/>
+      <c r="F168" s="4"/>
     </row>
     <row r="169" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F169" s="6"/>
+      <c r="F169" s="4"/>
     </row>
     <row r="170" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F170" s="6"/>
+      <c r="F170" s="4"/>
     </row>
     <row r="171" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F171" s="6"/>
+      <c r="F171" s="4"/>
     </row>
     <row r="172" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F172" s="6"/>
+      <c r="F172" s="4"/>
     </row>
     <row r="173" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F173" s="6"/>
+      <c r="F173" s="4"/>
     </row>
     <row r="174" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F174" s="6"/>
+      <c r="F174" s="4"/>
     </row>
     <row r="175" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F175" s="6"/>
+      <c r="F175" s="4"/>
     </row>
     <row r="176" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F176" s="6"/>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F177" s="6"/>
+      <c r="F177" s="4"/>
     </row>
     <row r="178" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F178" s="6"/>
+      <c r="F178" s="4"/>
     </row>
     <row r="179" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F179" s="6"/>
+      <c r="F179" s="4"/>
     </row>
     <row r="180" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F180" s="6"/>
+      <c r="F180" s="4"/>
     </row>
     <row r="181" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F181" s="6"/>
+      <c r="F181" s="4"/>
     </row>
     <row r="182" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F182" s="6"/>
+      <c r="F182" s="4"/>
     </row>
     <row r="183" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F183" s="6"/>
+      <c r="F183" s="4"/>
     </row>
     <row r="184" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F184" s="6"/>
+      <c r="F184" s="4"/>
     </row>
     <row r="185" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F185" s="6"/>
+      <c r="F185" s="4"/>
     </row>
     <row r="186" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F186" s="6"/>
+      <c r="F186" s="4"/>
     </row>
     <row r="187" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F187" s="6"/>
+      <c r="F187" s="4"/>
     </row>
     <row r="188" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F188" s="6"/>
+      <c r="F188" s="4"/>
     </row>
     <row r="189" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F189" s="6"/>
+      <c r="F189" s="4"/>
     </row>
     <row r="190" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F190" s="6"/>
+      <c r="F190" s="4"/>
     </row>
     <row r="191" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F191" s="6"/>
+      <c r="F191" s="4"/>
     </row>
     <row r="192" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F192" s="6"/>
+      <c r="F192" s="4"/>
     </row>
     <row r="193" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F193" s="6"/>
+      <c r="F193" s="4"/>
     </row>
     <row r="194" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F194" s="6"/>
+      <c r="F194" s="4"/>
     </row>
     <row r="195" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F195" s="6"/>
+      <c r="F195" s="4"/>
     </row>
     <row r="196" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F196" s="6"/>
+      <c r="F196" s="4"/>
     </row>
     <row r="197" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F197" s="6"/>
+      <c r="F197" s="4"/>
     </row>
     <row r="198" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F198" s="6"/>
+      <c r="F198" s="4"/>
     </row>
     <row r="199" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F199" s="6"/>
+      <c r="F199" s="4"/>
     </row>
     <row r="200" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F200" s="6"/>
+      <c r="F200" s="4"/>
     </row>
     <row r="201" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F201" s="6"/>
+      <c r="F201" s="4"/>
     </row>
     <row r="202" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F202" s="6"/>
+      <c r="F202" s="4"/>
     </row>
     <row r="203" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F203" s="6"/>
+      <c r="F203" s="4"/>
     </row>
     <row r="204" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F204" s="6"/>
+      <c r="F204" s="4"/>
     </row>
     <row r="205" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F205" s="6"/>
+      <c r="F205" s="4"/>
     </row>
     <row r="206" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F206" s="6"/>
+      <c r="F206" s="4"/>
     </row>
     <row r="207" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F207" s="6"/>
+      <c r="F207" s="4"/>
     </row>
     <row r="208" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F208" s="6"/>
+      <c r="F208" s="4"/>
     </row>
     <row r="209" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F209" s="6"/>
+      <c r="F209" s="4"/>
     </row>
     <row r="210" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F210" s="6"/>
+      <c r="F210" s="4"/>
     </row>
     <row r="211" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F211" s="6"/>
+      <c r="F211" s="4"/>
     </row>
     <row r="212" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F212" s="6"/>
+      <c r="F212" s="4"/>
     </row>
     <row r="213" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F213" s="6"/>
+      <c r="F213" s="4"/>
     </row>
     <row r="214" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F214" s="6"/>
+      <c r="F214" s="4"/>
     </row>
     <row r="215" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F215" s="6"/>
+      <c r="F215" s="4"/>
     </row>
     <row r="216" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F216" s="6"/>
+      <c r="F216" s="4"/>
     </row>
     <row r="217" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F217" s="6"/>
+      <c r="F217" s="4"/>
     </row>
     <row r="218" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F218" s="6"/>
+      <c r="F218" s="4"/>
     </row>
     <row r="219" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F219" s="6"/>
+      <c r="F219" s="4"/>
     </row>
     <row r="220" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F220" s="6"/>
+      <c r="F220" s="4"/>
     </row>
     <row r="221" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F221" s="6"/>
+      <c r="F221" s="4"/>
     </row>
     <row r="222" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F222" s="6"/>
+      <c r="F222" s="4"/>
     </row>
     <row r="223" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F223" s="6"/>
+      <c r="F223" s="4"/>
     </row>
     <row r="224" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F224" s="6"/>
+      <c r="F224" s="4"/>
     </row>
     <row r="225" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F225" s="6"/>
+      <c r="F225" s="4"/>
     </row>
     <row r="226" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F226" s="6"/>
+      <c r="F226" s="4"/>
     </row>
     <row r="227" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F227" s="6"/>
+      <c r="F227" s="4"/>
     </row>
     <row r="228" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F228" s="6"/>
+      <c r="F228" s="4"/>
     </row>
     <row r="229" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F229" s="6"/>
+      <c r="F229" s="4"/>
     </row>
     <row r="230" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F230" s="6"/>
+      <c r="F230" s="4"/>
     </row>
     <row r="231" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F231" s="6"/>
+      <c r="F231" s="4"/>
     </row>
     <row r="232" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F232" s="6"/>
+      <c r="F232" s="4"/>
     </row>
     <row r="233" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F233" s="6"/>
+      <c r="F233" s="4"/>
     </row>
     <row r="234" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F234" s="6"/>
+      <c r="F234" s="4"/>
     </row>
     <row r="235" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F235" s="6"/>
+      <c r="F235" s="4"/>
     </row>
     <row r="236" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F236" s="6"/>
+      <c r="F236" s="4"/>
     </row>
     <row r="237" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F237" s="6"/>
+      <c r="F237" s="4"/>
     </row>
     <row r="238" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F238" s="6"/>
+      <c r="F238" s="4"/>
     </row>
     <row r="239" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F239" s="6"/>
+      <c r="F239" s="4"/>
     </row>
     <row r="240" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F240" s="6"/>
+      <c r="F240" s="4"/>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F241" s="6"/>
+      <c r="F241" s="4"/>
     </row>
     <row r="242" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F242" s="6"/>
+      <c r="F242" s="4"/>
     </row>
     <row r="243" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F243" s="6"/>
+      <c r="F243" s="4"/>
     </row>
     <row r="244" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F244" s="6"/>
+      <c r="F244" s="4"/>
     </row>
     <row r="245" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F245" s="6"/>
+      <c r="F245" s="4"/>
     </row>
     <row r="246" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F246" s="6"/>
+      <c r="F246" s="4"/>
     </row>
     <row r="247" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F247" s="6"/>
+      <c r="F247" s="4"/>
     </row>
     <row r="248" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F248" s="6"/>
+      <c r="F248" s="4"/>
     </row>
     <row r="249" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F249" s="6"/>
+      <c r="F249" s="4"/>
     </row>
     <row r="250" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F250" s="6"/>
+      <c r="F250" s="4"/>
     </row>
     <row r="251" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F251" s="6"/>
+      <c r="F251" s="4"/>
     </row>
     <row r="252" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F252" s="6"/>
+      <c r="F252" s="4"/>
     </row>
     <row r="253" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F253" s="6"/>
+      <c r="F253" s="4"/>
     </row>
     <row r="254" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F254" s="6"/>
+      <c r="F254" s="4"/>
     </row>
     <row r="255" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F255" s="6"/>
+      <c r="F255" s="4"/>
     </row>
     <row r="256" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F256" s="6"/>
+      <c r="F256" s="4"/>
     </row>
     <row r="257" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F257" s="6"/>
+      <c r="F257" s="4"/>
     </row>
     <row r="258" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F258" s="6"/>
+      <c r="F258" s="4"/>
     </row>
     <row r="259" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F259" s="6"/>
+      <c r="F259" s="4"/>
     </row>
     <row r="260" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F260" s="6"/>
+      <c r="F260" s="4"/>
     </row>
     <row r="261" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F261" s="6"/>
+      <c r="F261" s="4"/>
     </row>
     <row r="262" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F262" s="6"/>
+      <c r="F262" s="4"/>
     </row>
     <row r="263" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F263" s="6"/>
+      <c r="F263" s="4"/>
     </row>
     <row r="264" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F264" s="6"/>
+      <c r="F264" s="4"/>
     </row>
     <row r="265" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F265" s="6"/>
+      <c r="F265" s="4"/>
     </row>
     <row r="266" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F266" s="6"/>
+      <c r="F266" s="4"/>
     </row>
     <row r="267" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F267" s="6"/>
+      <c r="F267" s="4"/>
     </row>
     <row r="268" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F268" s="6"/>
+      <c r="F268" s="4"/>
     </row>
     <row r="269" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F269" s="6"/>
+      <c r="F269" s="4"/>
     </row>
     <row r="270" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F270" s="6"/>
+      <c r="F270" s="4"/>
     </row>
     <row r="271" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F271" s="6"/>
+      <c r="F271" s="4"/>
     </row>
     <row r="272" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F272" s="6"/>
+      <c r="F272" s="4"/>
     </row>
     <row r="273" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F273" s="6"/>
+      <c r="F273" s="4"/>
     </row>
     <row r="274" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F274" s="6"/>
+      <c r="F274" s="4"/>
     </row>
     <row r="275" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F275" s="6"/>
+      <c r="F275" s="4"/>
     </row>
     <row r="276" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F276" s="6"/>
+      <c r="F276" s="4"/>
     </row>
     <row r="277" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F277" s="6"/>
+      <c r="F277" s="4"/>
     </row>
     <row r="278" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F278" s="6"/>
+      <c r="F278" s="4"/>
     </row>
     <row r="279" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F279" s="6"/>
+      <c r="F279" s="4"/>
     </row>
     <row r="280" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F280" s="6"/>
+      <c r="F280" s="4"/>
     </row>
     <row r="281" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F281" s="6"/>
+      <c r="F281" s="4"/>
     </row>
     <row r="282" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F282" s="6"/>
+      <c r="F282" s="4"/>
     </row>
     <row r="283" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F283" s="6"/>
+      <c r="F283" s="4"/>
     </row>
     <row r="284" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F284" s="6"/>
+      <c r="F284" s="4"/>
     </row>
     <row r="285" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F285" s="6"/>
+      <c r="F285" s="4"/>
     </row>
     <row r="286" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F286" s="6"/>
+      <c r="F286" s="4"/>
     </row>
     <row r="287" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F287" s="6"/>
+      <c r="F287" s="4"/>
     </row>
     <row r="288" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F288" s="6"/>
+      <c r="F288" s="4"/>
     </row>
     <row r="289" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F289" s="6"/>
+      <c r="F289" s="4"/>
     </row>
     <row r="290" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F290" s="6"/>
+      <c r="F290" s="4"/>
     </row>
     <row r="291" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F291" s="6"/>
+      <c r="F291" s="4"/>
     </row>
     <row r="292" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F292" s="6"/>
+      <c r="F292" s="4"/>
     </row>
     <row r="293" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F293" s="6"/>
+      <c r="F293" s="4"/>
     </row>
     <row r="294" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F294" s="6"/>
+      <c r="F294" s="4"/>
     </row>
     <row r="295" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F295" s="3"/>
@@ -1688,19 +1703,22 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E245:E1048576" xr:uid="{1D53E4B0-9B76-42E0-A383-76337EE9C044}">
       <formula1>"Individu, Perusahaan Nasional, Perusahaan Asing, Pemerintah, Public,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{A7B3C612-AA2A-42B0-9103-969C3D1D0755}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D87:D1048576" xr:uid="{A7B3C612-AA2A-42B0-9103-969C3D1D0755}">
       <formula1>"Indonesia, Asing"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F373:F1048576" xr:uid="{D1787B27-4252-4000-9E9C-231921C8D725}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C138" xr:uid="{54BCA33D-B6CD-47B0-98CF-39B5A6662D90}">
+      <formula1>"Jasa Lainnya, Jasa Konstruksi,Jasa Pengadaan Barang,Jasa Konsultasi,Sewa Kelola"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format_excel/FORMAT EXCEL DATA PENGURUS PERUSAHAAN DRT JMTO.xlsx
+++ b/format_excel/FORMAT EXCEL DATA PENGURUS PERUSAHAAN DRT JMTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vms-jmto\format_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2985C31D-8682-4D95-8D3D-F42968E7E6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A28D85C-48C2-4456-AF9B-C7E4A5DB7BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A632CAD5-B0FD-44A7-985B-58B65B2ABDD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A632CAD5-B0FD-44A7-985B-58B65B2ABDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,60 +36,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
-    <t>IMPORT EXCEL DATA PENGALAMAN PERUSAHAAN JMTO</t>
+    <t>IMPORT EXCEL DATA PEMILIK PERUSAHAAN JMTO</t>
   </si>
   <si>
-    <t>NO KONTRAK</t>
+    <t>NIK/PASPOR</t>
   </si>
   <si>
-    <t>NAMA PEKERJAAN</t>
+    <t>NPWP</t>
   </si>
   <si>
-    <t>Jasa Lainnya</t>
+    <t>NAMA</t>
   </si>
   <si>
-    <t>Jasa Konstruksi</t>
+    <t>WARGANEGARA</t>
   </si>
   <si>
-    <t>JENIS PENGADAAN</t>
+    <t>JABATAN PENGURUS</t>
   </si>
   <si>
-    <t>NILAI KONTRAK</t>
+    <t>JABATAN MULAI</t>
   </si>
   <si>
-    <t>INTANSI PEMBERI</t>
+    <t>JABATAN SELESAI</t>
   </si>
   <si>
-    <t>BUMN</t>
+    <t>ALAMAT PENGURUS</t>
   </si>
   <si>
-    <t>BUMD</t>
+    <t>Erlangga Pramsco</t>
   </si>
   <si>
-    <t>LOKASI PEKERJAAN</t>
+    <t>Indonesia</t>
   </si>
   <si>
-    <t>PALIKANCI</t>
+    <t>Manger</t>
   </si>
   <si>
-    <t>SURGEM</t>
+    <t>RAWAKALONG GUNUNG SINDUR BOGOR</t>
   </si>
   <si>
-    <t>PKERJAAN TOLL PALIKANCI</t>
+    <t>20/10/2121</t>
   </si>
   <si>
-    <t>PKERJAAN TOLL SURGEM</t>
+    <t>10/10/2022</t>
+  </si>
+  <si>
+    <t>Asing</t>
+  </si>
+  <si>
+    <t>Danang Prasetyo</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0.00"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,12 +115,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,17 +149,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,14 +472,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CC3E2E-A3E4-418C-ABD1-9C4DCA633CE8}">
   <dimension ref="A1:H320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
@@ -493,16 +489,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -512,1116 +508,1105 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>163409923</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>123782222</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>123123123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>123123782222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="6"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="6"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="6"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="6"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="6"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="6"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="6"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="6"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
     </row>
     <row r="111" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
     </row>
     <row r="112" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
     </row>
     <row r="116" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
     </row>
     <row r="122" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
     </row>
     <row r="123" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
     </row>
     <row r="124" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
     </row>
     <row r="128" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
     </row>
     <row r="129" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
     </row>
     <row r="130" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
     </row>
     <row r="131" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
     </row>
     <row r="133" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
     </row>
     <row r="135" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
     </row>
     <row r="136" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
     </row>
     <row r="137" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
     </row>
     <row r="138" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
     </row>
     <row r="139" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
     </row>
     <row r="140" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
     </row>
     <row r="141" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
     </row>
     <row r="142" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
     </row>
     <row r="143" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
     </row>
     <row r="144" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
     </row>
     <row r="145" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
     </row>
     <row r="146" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
     </row>
     <row r="147" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
     </row>
     <row r="148" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
     </row>
     <row r="149" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
     </row>
     <row r="150" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
     </row>
     <row r="152" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
     </row>
     <row r="153" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
     </row>
     <row r="154" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
     </row>
     <row r="155" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
     </row>
     <row r="156" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F156" s="4"/>
+      <c r="F156" s="6"/>
       <c r="G156" s="3"/>
     </row>
     <row r="157" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F157" s="4"/>
+      <c r="F157" s="6"/>
       <c r="G157" s="3"/>
     </row>
     <row r="158" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F158" s="4"/>
+      <c r="F158" s="6"/>
       <c r="G158" s="3"/>
     </row>
     <row r="159" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F159" s="4"/>
+      <c r="F159" s="6"/>
       <c r="G159" s="3"/>
     </row>
     <row r="160" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F160" s="4"/>
+      <c r="F160" s="6"/>
       <c r="G160" s="3"/>
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F161" s="4"/>
+      <c r="F161" s="6"/>
       <c r="G161" s="3"/>
     </row>
     <row r="162" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F162" s="4"/>
+      <c r="F162" s="6"/>
       <c r="G162" s="3"/>
     </row>
     <row r="163" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F163" s="4"/>
+      <c r="F163" s="6"/>
       <c r="G163" s="3"/>
     </row>
     <row r="164" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F164" s="4"/>
+      <c r="F164" s="6"/>
       <c r="G164" s="3"/>
     </row>
     <row r="165" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F165" s="4"/>
+      <c r="F165" s="6"/>
     </row>
     <row r="166" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F166" s="4"/>
+      <c r="F166" s="6"/>
     </row>
     <row r="167" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F167" s="4"/>
+      <c r="F167" s="6"/>
     </row>
     <row r="168" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F168" s="4"/>
+      <c r="F168" s="6"/>
     </row>
     <row r="169" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F169" s="4"/>
+      <c r="F169" s="6"/>
     </row>
     <row r="170" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F170" s="4"/>
+      <c r="F170" s="6"/>
     </row>
     <row r="171" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F171" s="4"/>
+      <c r="F171" s="6"/>
     </row>
     <row r="172" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F172" s="4"/>
+      <c r="F172" s="6"/>
     </row>
     <row r="173" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F173" s="4"/>
+      <c r="F173" s="6"/>
     </row>
     <row r="174" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F174" s="4"/>
+      <c r="F174" s="6"/>
     </row>
     <row r="175" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F175" s="4"/>
+      <c r="F175" s="6"/>
     </row>
     <row r="176" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F176" s="4"/>
+      <c r="F176" s="6"/>
     </row>
     <row r="177" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F177" s="4"/>
+      <c r="F177" s="6"/>
     </row>
     <row r="178" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F178" s="4"/>
+      <c r="F178" s="6"/>
     </row>
     <row r="179" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F179" s="4"/>
+      <c r="F179" s="6"/>
     </row>
     <row r="180" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F180" s="4"/>
+      <c r="F180" s="6"/>
     </row>
     <row r="181" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F181" s="4"/>
+      <c r="F181" s="6"/>
     </row>
     <row r="182" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F182" s="4"/>
+      <c r="F182" s="6"/>
     </row>
     <row r="183" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F183" s="4"/>
+      <c r="F183" s="6"/>
     </row>
     <row r="184" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F184" s="4"/>
+      <c r="F184" s="6"/>
     </row>
     <row r="185" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F185" s="4"/>
+      <c r="F185" s="6"/>
     </row>
     <row r="186" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F186" s="4"/>
+      <c r="F186" s="6"/>
     </row>
     <row r="187" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F187" s="4"/>
+      <c r="F187" s="6"/>
     </row>
     <row r="188" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F188" s="4"/>
+      <c r="F188" s="6"/>
     </row>
     <row r="189" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F189" s="4"/>
+      <c r="F189" s="6"/>
     </row>
     <row r="190" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F190" s="4"/>
+      <c r="F190" s="6"/>
     </row>
     <row r="191" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F191" s="4"/>
+      <c r="F191" s="6"/>
     </row>
     <row r="192" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F192" s="4"/>
+      <c r="F192" s="6"/>
     </row>
     <row r="193" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F193" s="4"/>
+      <c r="F193" s="6"/>
     </row>
     <row r="194" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F194" s="4"/>
+      <c r="F194" s="6"/>
     </row>
     <row r="195" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F195" s="4"/>
+      <c r="F195" s="6"/>
     </row>
     <row r="196" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F196" s="4"/>
+      <c r="F196" s="6"/>
     </row>
     <row r="197" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F197" s="4"/>
+      <c r="F197" s="6"/>
     </row>
     <row r="198" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F198" s="4"/>
+      <c r="F198" s="6"/>
     </row>
     <row r="199" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F199" s="4"/>
+      <c r="F199" s="6"/>
     </row>
     <row r="200" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F200" s="4"/>
+      <c r="F200" s="6"/>
     </row>
     <row r="201" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F201" s="4"/>
+      <c r="F201" s="6"/>
     </row>
     <row r="202" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F202" s="4"/>
+      <c r="F202" s="6"/>
     </row>
     <row r="203" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F203" s="4"/>
+      <c r="F203" s="6"/>
     </row>
     <row r="204" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F204" s="4"/>
+      <c r="F204" s="6"/>
     </row>
     <row r="205" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F205" s="4"/>
+      <c r="F205" s="6"/>
     </row>
     <row r="206" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F206" s="4"/>
+      <c r="F206" s="6"/>
     </row>
     <row r="207" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F207" s="4"/>
+      <c r="F207" s="6"/>
     </row>
     <row r="208" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F208" s="4"/>
+      <c r="F208" s="6"/>
     </row>
     <row r="209" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F209" s="4"/>
+      <c r="F209" s="6"/>
     </row>
     <row r="210" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F210" s="4"/>
+      <c r="F210" s="6"/>
     </row>
     <row r="211" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F211" s="4"/>
+      <c r="F211" s="6"/>
     </row>
     <row r="212" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F212" s="4"/>
+      <c r="F212" s="6"/>
     </row>
     <row r="213" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F213" s="4"/>
+      <c r="F213" s="6"/>
     </row>
     <row r="214" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F214" s="4"/>
+      <c r="F214" s="6"/>
     </row>
     <row r="215" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F215" s="4"/>
+      <c r="F215" s="6"/>
     </row>
     <row r="216" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F216" s="4"/>
+      <c r="F216" s="6"/>
     </row>
     <row r="217" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F217" s="4"/>
+      <c r="F217" s="6"/>
     </row>
     <row r="218" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F218" s="4"/>
+      <c r="F218" s="6"/>
     </row>
     <row r="219" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F219" s="4"/>
+      <c r="F219" s="6"/>
     </row>
     <row r="220" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F220" s="4"/>
+      <c r="F220" s="6"/>
     </row>
     <row r="221" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F221" s="4"/>
+      <c r="F221" s="6"/>
     </row>
     <row r="222" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F222" s="4"/>
+      <c r="F222" s="6"/>
     </row>
     <row r="223" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F223" s="4"/>
+      <c r="F223" s="6"/>
     </row>
     <row r="224" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F224" s="4"/>
+      <c r="F224" s="6"/>
     </row>
     <row r="225" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F225" s="4"/>
+      <c r="F225" s="6"/>
     </row>
     <row r="226" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F226" s="4"/>
+      <c r="F226" s="6"/>
     </row>
     <row r="227" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F227" s="4"/>
+      <c r="F227" s="6"/>
     </row>
     <row r="228" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F228" s="4"/>
+      <c r="F228" s="6"/>
     </row>
     <row r="229" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F229" s="4"/>
+      <c r="F229" s="6"/>
     </row>
     <row r="230" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F230" s="4"/>
+      <c r="F230" s="6"/>
     </row>
     <row r="231" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F231" s="4"/>
+      <c r="F231" s="6"/>
     </row>
     <row r="232" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F232" s="4"/>
+      <c r="F232" s="6"/>
     </row>
     <row r="233" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F233" s="4"/>
+      <c r="F233" s="6"/>
     </row>
     <row r="234" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F234" s="4"/>
+      <c r="F234" s="6"/>
     </row>
     <row r="235" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F235" s="4"/>
+      <c r="F235" s="6"/>
     </row>
     <row r="236" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F236" s="4"/>
+      <c r="F236" s="6"/>
     </row>
     <row r="237" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F237" s="4"/>
+      <c r="F237" s="6"/>
     </row>
     <row r="238" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F238" s="4"/>
+      <c r="F238" s="6"/>
     </row>
     <row r="239" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F239" s="4"/>
+      <c r="F239" s="6"/>
     </row>
     <row r="240" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F240" s="4"/>
+      <c r="F240" s="6"/>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F241" s="4"/>
+      <c r="F241" s="6"/>
     </row>
     <row r="242" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F242" s="4"/>
+      <c r="F242" s="6"/>
     </row>
     <row r="243" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F243" s="4"/>
+      <c r="F243" s="6"/>
     </row>
     <row r="244" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F244" s="4"/>
+      <c r="F244" s="6"/>
     </row>
     <row r="245" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F245" s="4"/>
+      <c r="F245" s="6"/>
     </row>
     <row r="246" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F246" s="4"/>
+      <c r="F246" s="6"/>
     </row>
     <row r="247" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F247" s="4"/>
+      <c r="F247" s="6"/>
     </row>
     <row r="248" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F248" s="4"/>
+      <c r="F248" s="6"/>
     </row>
     <row r="249" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F249" s="4"/>
+      <c r="F249" s="6"/>
     </row>
     <row r="250" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F250" s="4"/>
+      <c r="F250" s="6"/>
     </row>
     <row r="251" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F251" s="4"/>
+      <c r="F251" s="6"/>
     </row>
     <row r="252" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F252" s="4"/>
+      <c r="F252" s="6"/>
     </row>
     <row r="253" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F253" s="4"/>
+      <c r="F253" s="6"/>
     </row>
     <row r="254" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F254" s="4"/>
+      <c r="F254" s="6"/>
     </row>
     <row r="255" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F255" s="4"/>
+      <c r="F255" s="6"/>
     </row>
     <row r="256" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F256" s="4"/>
+      <c r="F256" s="6"/>
     </row>
     <row r="257" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F257" s="4"/>
+      <c r="F257" s="6"/>
     </row>
     <row r="258" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F258" s="4"/>
+      <c r="F258" s="6"/>
     </row>
     <row r="259" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F259" s="4"/>
+      <c r="F259" s="6"/>
     </row>
     <row r="260" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F260" s="4"/>
+      <c r="F260" s="6"/>
     </row>
     <row r="261" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F261" s="4"/>
+      <c r="F261" s="6"/>
     </row>
     <row r="262" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F262" s="4"/>
+      <c r="F262" s="6"/>
     </row>
     <row r="263" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F263" s="4"/>
+      <c r="F263" s="6"/>
     </row>
     <row r="264" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F264" s="4"/>
+      <c r="F264" s="6"/>
     </row>
     <row r="265" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F265" s="4"/>
+      <c r="F265" s="6"/>
     </row>
     <row r="266" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F266" s="4"/>
+      <c r="F266" s="6"/>
     </row>
     <row r="267" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F267" s="4"/>
+      <c r="F267" s="6"/>
     </row>
     <row r="268" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F268" s="4"/>
+      <c r="F268" s="6"/>
     </row>
     <row r="269" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F269" s="4"/>
+      <c r="F269" s="6"/>
     </row>
     <row r="270" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F270" s="4"/>
+      <c r="F270" s="6"/>
     </row>
     <row r="271" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F271" s="4"/>
+      <c r="F271" s="6"/>
     </row>
     <row r="272" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F272" s="4"/>
+      <c r="F272" s="6"/>
     </row>
     <row r="273" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F273" s="4"/>
+      <c r="F273" s="6"/>
     </row>
     <row r="274" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F274" s="4"/>
+      <c r="F274" s="6"/>
     </row>
     <row r="275" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F275" s="4"/>
+      <c r="F275" s="6"/>
     </row>
     <row r="276" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F276" s="4"/>
+      <c r="F276" s="6"/>
     </row>
     <row r="277" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F277" s="4"/>
+      <c r="F277" s="6"/>
     </row>
     <row r="278" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F278" s="4"/>
+      <c r="F278" s="6"/>
     </row>
     <row r="279" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F279" s="4"/>
+      <c r="F279" s="6"/>
     </row>
     <row r="280" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F280" s="4"/>
+      <c r="F280" s="6"/>
     </row>
     <row r="281" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F281" s="4"/>
+      <c r="F281" s="6"/>
     </row>
     <row r="282" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F282" s="4"/>
+      <c r="F282" s="6"/>
     </row>
     <row r="283" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F283" s="4"/>
+      <c r="F283" s="6"/>
     </row>
     <row r="284" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F284" s="4"/>
+      <c r="F284" s="6"/>
     </row>
     <row r="285" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F285" s="4"/>
+      <c r="F285" s="6"/>
     </row>
     <row r="286" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F286" s="4"/>
+      <c r="F286" s="6"/>
     </row>
     <row r="287" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F287" s="4"/>
+      <c r="F287" s="6"/>
     </row>
     <row r="288" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F288" s="4"/>
+      <c r="F288" s="6"/>
     </row>
     <row r="289" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F289" s="4"/>
+      <c r="F289" s="6"/>
     </row>
     <row r="290" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F290" s="4"/>
+      <c r="F290" s="6"/>
     </row>
     <row r="291" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F291" s="4"/>
+      <c r="F291" s="6"/>
     </row>
     <row r="292" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F292" s="4"/>
+      <c r="F292" s="6"/>
     </row>
     <row r="293" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F293" s="4"/>
+      <c r="F293" s="6"/>
     </row>
     <row r="294" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F294" s="4"/>
+      <c r="F294" s="6"/>
     </row>
     <row r="295" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F295" s="3"/>
@@ -1703,22 +1688,19 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E245:E1048576" xr:uid="{1D53E4B0-9B76-42E0-A383-76337EE9C044}">
       <formula1>"Individu, Perusahaan Nasional, Perusahaan Asing, Pemerintah, Public,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D87:D1048576" xr:uid="{A7B3C612-AA2A-42B0-9103-969C3D1D0755}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{A7B3C612-AA2A-42B0-9103-969C3D1D0755}">
       <formula1>"Indonesia, Asing"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F373:F1048576" xr:uid="{D1787B27-4252-4000-9E9C-231921C8D725}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C138" xr:uid="{54BCA33D-B6CD-47B0-98CF-39B5A6662D90}">
-      <formula1>"Jasa Lainnya, Jasa Konstruksi,Jasa Pengadaan Barang,Jasa Konsultasi,Sewa Kelola"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
